--- a/biology/Botanique/Bromus_sterilis/Bromus_sterilis.xlsx
+++ b/biology/Botanique/Bromus_sterilis/Bromus_sterilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anisantha sterilis
 Le Brome stérile (Anisantha sterilis) est une espèce de plantes monocotylédones de la famille des Poaceae, originaire de l'Ancien Monde. 
@@ -513,11 +525,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce appartient au genre Bromus, sous-genre Stenobromus (avec les espèces Bromus diandrus, Bromus fasciculatus, Bromus madritensis, Bromus rubens et Bromus tectorum).
-Liste des variétés
-Selon Tropicos                                           (4 juillet 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bromus_sterilis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromus_sterilis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (4 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Bromus sterilis var. glabrescens Zapal.
 variété Bromus sterilis var. oligostachyus Asch. &amp; Graebn.
 variété Bromus sterilis var. pilosus Rohl
@@ -525,43 +574,7 @@
 variété Bromus sterilis var. purpurens Schur
 variété Bromus sterilis var. sterilis
 variété Bromus sterilis var. velutinus Volkart ex Hegi
-variété Bromus sterilis var. viridis Schur
-Synonymes
-Bromus sterilis L.
-Étymologie
-Le nom spécifique de « stérile », alors que cette plante est au contraire très prolifique, s'explique par le fait qu'elle ne présente aucune utilité pour l'homme et n'est pas broutée par les animaux.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bromus_sterilis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bromus_sterilis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe à tiges dressées et à feuilles molles vert pâle, de 50 à 80 cm de haut. Elle présente des inflorescences en panicules assez lâches composés d'épillets évasés vers l'extrémité. Les fleurs sont vertes, parfois tirant sur le violacé. Elle fleurit du printemps à l'été (entre avril et septembre).
-</t>
+variété Bromus sterilis var. viridis Schur</t>
         </is>
       </c>
     </row>
@@ -586,10 +599,118 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bromus sterilis L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bromus_sterilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromus_sterilis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique de « stérile », alors que cette plante est au contraire très prolifique, s'explique par le fait qu'elle ne présente aucune utilité pour l'homme et n'est pas broutée par les animaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bromus_sterilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromus_sterilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe à tiges dressées et à feuilles molles vert pâle, de 50 à 80 cm de haut. Elle présente des inflorescences en panicules assez lâches composés d'épillets évasés vers l'extrémité. Les fleurs sont vertes, parfois tirant sur le violacé. Elle fleurit du printemps à l'été (entre avril et septembre).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bromus_sterilis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bromus_sterilis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire des régions tempérées de l'ancien monde : Europe, Afrique du Nord, Asie occidentale et centrale (de la Turquie à l'Afghanistan).
 Elle s'est naturalisée sur tous les continents.
